--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaHhSt.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaHhSt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCDAF9E-EF1C-4A7F-8664-CF1E514CD69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBFF382-5965-4FD7-B512-C134904FB903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="28695" windowHeight="15465" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Tên hàng hóa</t>
   </si>
@@ -52,19 +52,30 @@
   </si>
   <si>
     <t>cái</t>
+  </si>
+  <si>
+    <t>GIÁ HÀNG HOÁ SIÊU THỊ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,11 +110,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -122,6 +142,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,42 +471,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A2:F4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" customWidth="1"/>
-    <col min="5" max="11" width="14" customWidth="1"/>
+    <col min="5" max="6" width="14" style="11" customWidth="1"/>
+    <col min="7" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -486,14 +530,14 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="10">
         <v>5000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -506,14 +550,22 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="10">
         <v>5000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="10">
         <v>5000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="E3:F1048576" xr:uid="{0D4FF579-6D4D-460D-B498-D16F56B4CB6E}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
